--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_CTAfterHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_CTAfterHours_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
   <si>
     <t>ModuleName</t>
   </si>
@@ -228,67 +228,52 @@
     <t>EditSaveName</t>
   </si>
   <si>
+    <t>wf_ET_ETRS_Notifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET_ETRS_Notify </t>
+  </si>
+  <si>
+    <t>ET_ETRS_Notify</t>
+  </si>
+  <si>
+    <t>Every time the record is save</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>05-21-2024</t>
+  </si>
+  <si>
+    <t>05-24-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>ET332</t>
+  </si>
+  <si>
+    <t>ET333</t>
+  </si>
+  <si>
+    <t>ET334</t>
+  </si>
+  <si>
+    <t>ET_CTAfterHours</t>
+  </si>
+  <si>
+    <t>22-07-2024</t>
+  </si>
+  <si>
+    <t>25-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>wf_ET_ETRS_Notifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET_ETRS_Notify </t>
-  </si>
-  <si>
-    <t>ET_ETRS_Notify</t>
-  </si>
-  <si>
-    <t>Every time the record is save</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>05-20-2024</t>
-  </si>
-  <si>
-    <t>05-23-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>ET326</t>
-  </si>
-  <si>
-    <t>ET327</t>
-  </si>
-  <si>
-    <t>ET328</t>
-  </si>
-  <si>
-    <t>tskNT_ExecuteTask_CTAfterHours</t>
-  </si>
-  <si>
-    <t>05-21-2024</t>
-  </si>
-  <si>
-    <t>05-24-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>02:35:55 AM</t>
-  </si>
-  <si>
-    <t>ET329</t>
-  </si>
-  <si>
-    <t>ET330</t>
-  </si>
-  <si>
-    <t>ET331</t>
-  </si>
-  <si>
-    <t>ET332</t>
-  </si>
-  <si>
-    <t>ET333</t>
-  </si>
-  <si>
-    <t>ET334</t>
+    <t>ET2730</t>
   </si>
 </sst>
 </file>
@@ -634,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD11:AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -776,7 +761,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -845,7 +830,7 @@
         <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
@@ -863,13 +848,13 @@
         <v>47</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="s" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1016,7 +1001,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1085,7 +1070,7 @@
         <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
@@ -1102,10 +1087,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1108,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1242,7 +1227,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1269,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1278,10 +1263,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1311,7 +1296,7 @@
         <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
@@ -1328,10 +1313,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -1466,7 +1451,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1493,7 +1478,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1502,10 +1487,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1535,7 +1520,7 @@
         <v>49</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
@@ -1552,10 +1537,10 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_CTAfterHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRS/ET_NT_ETRS_CTAfterHours_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="88">
   <si>
     <t>ModuleName</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>ET2730</t>
+  </si>
+  <si>
+    <t>23-07-2024</t>
+  </si>
+  <si>
+    <t>26-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>31-07-2024</t>
+  </si>
+  <si>
+    <t>31-07-2024 05:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -788,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -797,7 +809,7 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="1">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s" s="1">
         <v>82</v>
@@ -1028,7 +1040,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1037,7 +1049,7 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s" s="0">
         <v>82</v>
@@ -1254,7 +1266,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1263,10 +1275,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1478,7 +1490,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1487,10 +1499,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
